--- a/documents/ipf-table-1.xlsx
+++ b/documents/ipf-table-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t xml:space="preserve">Reference
 Author year 
@@ -81,7 +81,7 @@
   <si>
     <t xml:space="preserve">11.0; 
 2.3, 
-52</t>
+52.4</t>
   </si>
   <si>
     <t xml:space="preserve">2.9; 
@@ -209,6 +209,11 @@
 112.4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.6;
+0.2,
+1.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.8;
 0.5,
 7.0</t>
@@ -282,9 +287,9 @@
 6.8</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7;
-0.3,
-1.3</t>
+    <t xml:space="preserve">1;
+0.4,
+2.3</t>
   </si>
   <si>
     <t xml:space="preserve">1.1;
@@ -301,9 +306,9 @@
 22.1</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8;
-1,
-3.1</t>
+    <t xml:space="preserve">3.3;
+1.2,
+10.1</t>
   </si>
   <si>
     <t xml:space="preserve">Paolocci 2013, soft wood (abstract only)
@@ -473,17 +478,20 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.3418367346939"/>
+    <col collapsed="false" hidden="true" max="5" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6326530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>7</v>
@@ -698,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,8 +757,11 @@
       <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>26</v>
@@ -761,13 +772,16 @@
       <c r="M8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="N8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="O8" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
@@ -776,36 +790,39 @@
         <v>140</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
@@ -814,13 +831,13 @@
         <v>97</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>9</v>
@@ -828,7 +845,7 @@
     </row>
     <row r="11" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>13</v>
@@ -837,21 +854,21 @@
         <v>100</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>13</v>
@@ -860,36 +877,39 @@
         <v>95</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
@@ -898,27 +918,27 @@
         <v>106</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>13</v>
@@ -927,19 +947,19 @@
         <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>9</v>
@@ -948,32 +968,35 @@
         <v>2</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>13</v>
@@ -982,22 +1005,22 @@
         <v>78</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>35</v>
@@ -1009,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/ipf-table-1.xlsx
+++ b/documents/ipf-table-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">Table 4: IPF case-control studies that investigate occupational exposures</t>
+  </si>
   <si>
     <t xml:space="preserve">Reference
 Author year 
@@ -42,7 +45,7 @@
     <t xml:space="preserve">OR; 95% CI</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupational proportion</t>
+    <t xml:space="preserve">Occupational PAF (%)</t>
   </si>
   <si>
     <t xml:space="preserve">vgdf*</t>
@@ -109,6 +112,9 @@
     <t xml:space="preserve">questionnaire and telephone interview</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.7;
 1.1,
 2.7</t>
@@ -246,18 +252,6 @@
 2.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Garcia-Sancho Figueroa 2010
-(Mexico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinical assessment, CT,  lung biopsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2;
-0.8,
-1.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Garcia-Sancho 2011
 (Mexico)</t>
   </si>
@@ -323,9 +317,9 @@
 7.2</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11;	
-0.37,	
-3.31
+    <t xml:space="preserve">1.1;	
+0.4,	
+3.3
 </t>
   </si>
   <si>
@@ -341,13 +335,16 @@
     <t xml:space="preserve">n/a </t>
   </si>
   <si>
-    <t xml:space="preserve">0.86;
-0.26,	
-2.78</t>
+    <t xml:space="preserve">0.9;
+0.3,	
+2.8</t>
   </si>
   <si>
     <t xml:space="preserve">Koo 2017
 (Korea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clinical assessment, CT,  lung biopsy</t>
   </si>
   <si>
     <t xml:space="preserve">interview</t>
@@ -380,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -401,6 +398,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,8 +449,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,7 +466,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,421 +490,517 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.3418367346939"/>
-    <col collapsed="false" hidden="true" max="5" min="3" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.265306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="1.16836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="true" max="19" min="17" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.82142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="0" t="s">
+    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="N6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>218</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
+      <c r="K7" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="M7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="E9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="I9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="10" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="E10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="N10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    <row r="11" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="L11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
+      <c r="A12" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>95</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>66</v>
+      <c r="K12" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>6</v>
@@ -908,26 +1016,41 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
+      <c r="A13" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>106</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>69</v>
+      <c r="J13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>6</v>
@@ -935,91 +1058,133 @@
       <c r="N13" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="O13" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>70</v>
+      <c r="A14" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>74</v>
+      <c r="K14" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>9</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>77</v>
+      <c r="I15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
+      <c r="A16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>78</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K16" s="0" t="n">
@@ -1031,14 +1196,18 @@
       <c r="M16" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="N16" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="O16" s="0" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
